--- a/results/mp/logistic/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,205 +46,208 @@
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crude</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>important</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,16 +745,16 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,37 +774,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -842,16 +845,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6052631578947368</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,37 +924,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5555555555555556</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L8">
         <v>16</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>98</v>
-      </c>
       <c r="M8">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5405405405405406</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5294117647058824</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L10">
         <v>16</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
       <c r="M10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1071,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.52</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8301886792452831</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4338624338624338</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="D13">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8276762402088773</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L13">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4117647058823529</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8203125</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3565891472868217</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C15">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3220338983050847</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2545454545454545</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,31 +1392,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.775</v>
       </c>
       <c r="L17">
+        <v>124</v>
+      </c>
+      <c r="M17">
+        <v>124</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>36</v>
-      </c>
-      <c r="M17">
-        <v>36</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2147651006711409</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7394366197183099</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2133333333333333</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>59</v>
+        <v>360</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7375</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,37 +1524,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05952380952380952</v>
+        <v>0.005021971123666039</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>237</v>
+        <v>3170</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,113 +1574,89 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006772009029345372</v>
+        <v>0.00451758631816715</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0.36</v>
+      </c>
+      <c r="F21">
+        <v>0.64</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3085</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.75</v>
+      </c>
+      <c r="L21">
         <v>27</v>
       </c>
-      <c r="E21">
-        <v>0.22</v>
-      </c>
-      <c r="F21">
-        <v>0.78</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3080</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="M21">
+        <v>27</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>0.7272727272727273</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>16</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>16</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.004706620646375902</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>29</v>
-      </c>
-      <c r="E22">
-        <v>0.48</v>
-      </c>
-      <c r="F22">
-        <v>0.52</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>3172</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L22">
-        <v>26</v>
-      </c>
-      <c r="M22">
-        <v>26</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.6842105263157895</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1741,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6785714285714286</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1767,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.675</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1793,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1819,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1845,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.6507936507936508</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1871,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1897,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.6296296296296297</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1923,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.6205882352941177</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L33">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1949,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1975,47 +1954,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2027,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2053,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.5815899581589958</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2079,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.5531914893617021</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L39">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M39">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2105,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.5454545454545454</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2131,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2157,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.5185185185185185</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2183,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.5076923076923077</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2209,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2235,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.4044943820224719</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2261,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.358974358974359</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2287,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.3571428571428572</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2313,47 +2292,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K48">
-        <v>0.3424657534246575</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L48">
         <v>25</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>0.296875</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2365,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K50">
-        <v>0.2745098039215687</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2391,33 +2370,85 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>0.004394224733207784</v>
+        <v>0.28125</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="L52">
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>0.004709576138147566</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>31</v>
+      </c>
+      <c r="N53">
         <v>0.48</v>
       </c>
-      <c r="O51">
+      <c r="O53">
         <v>0.52</v>
       </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>3172</v>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
